--- a/Discharge/Station3_2022-06-29_1245.xlsx
+++ b/Discharge/Station3_2022-06-29_1245.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2021/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F690B19C-1B97-DF47-B085-71A871A07C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C612E41-0912-CA4F-9772-3F872E737F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15680" xr2:uid="{04F0A533-B5B6-874C-8890-CBFCC1CCF508}"/>
+    <workbookView xWindow="11720" yWindow="1940" windowWidth="27640" windowHeight="15680" xr2:uid="{04F0A533-B5B6-874C-8890-CBFCC1CCF508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>average v with 0</t>
   </si>
 </sst>
 </file>
@@ -402,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9A521E-61F4-E14F-89BD-316D14461709}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +435,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -448,8 +457,12 @@
         <f>SUM(E2:E20)</f>
         <v>1.3154999999999998E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>F2/((A10-A2)/100)/(AVERAGE(B2:B10)/100)</f>
+        <v>0.28736650485436888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30</v>
       </c>
@@ -468,7 +481,7 @@
         <v>5.2499999999999975E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>35</v>
       </c>
@@ -487,7 +500,7 @@
         <v>1.2000000000000012E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40</v>
       </c>
@@ -506,7 +519,7 @@
         <v>2.2400000000000024E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>45</v>
       </c>
@@ -525,7 +538,7 @@
         <v>3.2999999999999956E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
@@ -544,7 +557,7 @@
         <v>3.0800000000000029E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>55</v>
       </c>
@@ -563,7 +576,7 @@
         <v>2.5999999999999968E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>60</v>
       </c>
@@ -582,7 +595,7 @@
         <v>2.100000000000002E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>65</v>
       </c>
@@ -601,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -611,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -621,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -631,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -641,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -651,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16">
         <f t="shared" si="1"/>
         <v>0</v>
